--- a/statistics_schedule.xlsx
+++ b/statistics_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyamamot/Dropbox/Documents/docs/2020/!!Lectures/統計学/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E098E9-9023-B949-AE49-D7D8DECCEF5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2936A4-C32D-DC40-BDD5-6C62C213735B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38900" yWindow="5380" windowWidth="28300" windowHeight="16220" xr2:uid="{923B7FE9-21B7-8D44-9D17-5289A289456F}"/>
+    <workbookView xWindow="37240" yWindow="3520" windowWidth="28300" windowHeight="16220" xr2:uid="{923B7FE9-21B7-8D44-9D17-5289A289456F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -66,72 +66,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>統計学の概要・ガイダンス</t>
-    <rPh sb="0" eb="3">
+    <t>確率の基礎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率変数・確率分布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>離散型の確率分布・二項分布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続型の確率分布・正規分布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>母集団と標本の基礎的概念</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推定量の性質</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大数の法則と中心極限定理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>母平均・母比率の推定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮説検定の基礎的概念</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮説検定の手順</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前課題 (1変数データの記述と要約)</t>
+    <rPh sb="112" eb="115">
       <t>・</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1変数データの記述と要約</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2変数データの記述と要約</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確率の基礎</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確率変数・確率分布</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>離散型の確率分布・二項分布</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>連続型の確率分布・正規分布</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中間試験とこれまでのまとめ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>母集団と標本の基礎的概念</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>推定量の性質</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大数の法則と中心極限定理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>母平均・母比率の推定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮説検定の基礎的概念</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮説検定の手順</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まとめと発展的な話題</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価（到達度の確認）</t>
+    <t>事前課題 (2変数データの記述と要約)</t>
+    <rPh sb="0" eb="1">
+      <t>ジゼｎ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これまでの復習（中間レポート）</t>
     <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめと発展的な話題（期末レポート）</t>
+    <rPh sb="0" eb="2">
+      <t>キマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイダンス・事前課題の復習・確率の基礎</t>
+    <rPh sb="0" eb="4">
+      <t>ジゼンカダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -191,11 +196,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +524,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -545,136 +553,176 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="2">
+        <v>43949</v>
+      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" s="2">
+        <v>43956</v>
+      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="2">
+        <v>43963</v>
+      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="2">
+        <v>43970</v>
+      </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="2">
+        <v>43977</v>
+      </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="2">
+        <v>43984</v>
+      </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="2">
+        <v>43991</v>
+      </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="2">
+        <v>43998</v>
+      </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="2">
+        <v>44005</v>
+      </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="2">
+        <v>44012</v>
+      </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" s="2">
+        <v>44019</v>
+      </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="2">
+        <v>44026</v>
+      </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" s="2">
+        <v>44033</v>
+      </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" s="2">
+        <v>44040</v>
+      </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" s="2">
+        <v>44047</v>
+      </c>
       <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>

--- a/statistics_schedule.xlsx
+++ b/statistics_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyamamot/Dropbox/Documents/docs/2020/!!Lectures/統計学/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2936A4-C32D-DC40-BDD5-6C62C213735B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A884BA-1F58-D24C-A5A0-B74B86206FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37240" yWindow="3520" windowWidth="28300" windowHeight="16220" xr2:uid="{923B7FE9-21B7-8D44-9D17-5289A289456F}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -45,20 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>資料</t>
-    <rPh sb="0" eb="2">
-      <t>シリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://qiita.com/QUENCH/items/d77d0983d4a6d9d7de8e</t>
   </si>
   <si>
@@ -107,7 +94,7 @@
   </si>
   <si>
     <t>事前課題 (1変数データの記述と要約)</t>
-    <rPh sb="112" eb="115">
+    <rPh sb="0" eb="19">
       <t>・</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -120,23 +107,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>これまでの復習（中間レポート）</t>
+    <t>ガイダンス・事前課題の復習・確率の基礎</t>
+    <rPh sb="0" eb="4">
+      <t>ジゼンカダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これまでの復習（中間レポート予定）</t>
     <rPh sb="0" eb="2">
       <t>フクシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>まとめと発展的な話題（期末レポート）</t>
+    <t>まとめと発展的な話題（期末レポート予定）</t>
     <rPh sb="0" eb="2">
       <t>キマツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガイダンス・事前課題の復習・確率の基礎</t>
-    <rPh sb="0" eb="4">
-      <t>ジゼンカダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -521,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3F504B-E574-8147-B1CF-F279F85B19E4}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -532,7 +519,7 @@
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,176 +529,164 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="B2" s="2">
         <v>43949</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" s="2">
         <v>43956</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>43963</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>43970</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>43977</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>43984</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>43991</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>43998</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>44005</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>44012</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>44019</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>44026</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>44033</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>44040</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>44047</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -719,12 +694,12 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -734,5 +709,6 @@
     <hyperlink ref="A21" r:id="rId2" xr:uid="{83514C7D-1F75-F749-912D-6ED7C7B39A7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>